--- a/ArticleManage/main_working_folder/output_folders/Data 87 Development of Porosity upon/Data87_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 87 Development of Porosity upon/Data87_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="350" sheetId="1" r:id="rId1"/>
-    <sheet name="450" sheetId="2" r:id="rId4"/>
-    <sheet name="500" sheetId="3" r:id="rId5"/>
-    <sheet name="600" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 350  0-1-0-500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 450  0-1-0-500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 500  0-1-0-500 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 600  0-1-0-500 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -97,7 +97,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 350</a:t>
+              <a:t>Izoterma adsorpcji probki 350 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'350'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 350  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'350'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 350  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -174,6 +174,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -243,6 +245,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -407,7 +411,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 450</a:t>
+              <a:t>Izoterma adsorpcji probki 450 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -466,12 +470,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'450'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 450  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'450'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 450  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -484,6 +488,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -553,6 +559,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -717,7 +725,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 500</a:t>
+              <a:t>Izoterma adsorpcji probki 500 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -776,12 +784,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 500  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 500  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -794,6 +802,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -863,6 +873,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1027,7 +1039,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600</a:t>
+              <a:t>Izoterma adsorpcji probki 600 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1086,12 +1098,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 600  0-1-0-500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 600  0-1-0-500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1104,6 +1116,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1173,6 +1187,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 87 Development of Porosity upon/Data87_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 87 Development of Porosity upon/Data87_all_graphs_excel.xlsx
@@ -4001,7 +4001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4022,397 +4022,141 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.06</v>
+        <v>0.0034</v>
       </c>
       <c r="B3" s="0">
-        <v>129.4492</v>
+        <v>100.955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.08</v>
+        <v>0.0064</v>
       </c>
       <c r="B4" s="0">
-        <v>134.1506</v>
+        <v>110.5048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1</v>
+        <v>0.0175</v>
       </c>
       <c r="B5" s="0">
-        <v>136.0528</v>
+        <v>118.0082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.12</v>
+        <v>0.0398</v>
       </c>
       <c r="B6" s="0">
-        <v>136.7246</v>
+        <v>125.5116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.14</v>
+        <v>0.057</v>
       </c>
       <c r="B7" s="0">
-        <v>137.584</v>
+        <v>129.6044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.16</v>
+        <v>0.0763</v>
       </c>
       <c r="B8" s="0">
-        <v>138.4774</v>
+        <v>131.6508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.18</v>
+        <v>0.0925</v>
       </c>
       <c r="B9" s="0">
-        <v>139.2777</v>
+        <v>133.015</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2</v>
+        <v>0.1493</v>
       </c>
       <c r="B10" s="0">
-        <v>140.1311</v>
+        <v>139.1542</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.22</v>
+        <v>0.1949</v>
       </c>
       <c r="B11" s="0">
-        <v>141.0417</v>
+        <v>141.8827</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.24</v>
+        <v>0.3024</v>
       </c>
       <c r="B12" s="0">
-        <v>142.0515</v>
+        <v>144.6112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.26</v>
+        <v>0.4088</v>
       </c>
       <c r="B13" s="0">
-        <v>143.2832</v>
+        <v>148.0218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.28</v>
+        <v>0.4981</v>
       </c>
       <c r="B14" s="0">
-        <v>144.2726</v>
+        <v>150.7503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3</v>
+        <v>0.6035</v>
       </c>
       <c r="B15" s="0">
-        <v>145.102</v>
+        <v>151.4325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.32</v>
+        <v>0.6999</v>
       </c>
       <c r="B16" s="0">
-        <v>146.2525</v>
+        <v>154.161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.34</v>
+        <v>0.8033</v>
       </c>
       <c r="B17" s="0">
-        <v>147.4108</v>
+        <v>156.2074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.36</v>
+        <v>0.9037</v>
       </c>
       <c r="B18" s="0">
-        <v>148.4466</v>
+        <v>156.8895</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.38</v>
+        <v>0.9595</v>
       </c>
       <c r="B19" s="0">
-        <v>149.0479</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4</v>
-      </c>
-      <c r="B20" s="0">
-        <v>148.7996</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B21" s="0">
-        <v>148.517</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.44</v>
-      </c>
-      <c r="B22" s="0">
-        <v>148.3296</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.46</v>
-      </c>
-      <c r="B23" s="0">
-        <v>148.2334</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B24" s="0">
-        <v>148.3065</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B25" s="0">
-        <v>148.7578</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B26" s="0">
-        <v>149.548</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B27" s="0">
-        <v>150.3919</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B28" s="0">
-        <v>151.0894</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B29" s="0">
-        <v>151.3943</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B30" s="0">
-        <v>151.5513</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B31" s="0">
-        <v>152.1378</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B32" s="0">
-        <v>152.9507</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B33" s="0">
-        <v>153.692</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B34" s="0">
-        <v>154.2171</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B35" s="0">
-        <v>154.4935</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B36" s="0">
-        <v>154.7387</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B37" s="0">
-        <v>155.1063</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B38" s="0">
-        <v>155.3982</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B39" s="0">
-        <v>155.4458</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B40" s="0">
-        <v>155.3772</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B41" s="0">
-        <v>155.3685</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B42" s="0">
-        <v>155.5655</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B43" s="0">
-        <v>156.0423</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B44" s="0">
-        <v>156.5043</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B45" s="0">
-        <v>156.7424</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B46" s="0">
-        <v>156.9739</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B47" s="0">
-        <v>157.3585</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9615</v>
-      </c>
-      <c r="B48" s="0">
-        <v>157.5716</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0085</v>
-      </c>
-      <c r="B49" s="0">
-        <v>109.1405</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0175</v>
-      </c>
-      <c r="B50" s="0">
-        <v>118.0082</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0398</v>
-      </c>
-      <c r="B51" s="0">
-        <v>125.5116</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>156.8895</v>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4421,7 +4165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4442,381 +4186,117 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1395</v>
+        <v>0.9582</v>
       </c>
       <c r="B3" s="0">
-        <v>340.6638</v>
+        <v>371.0778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1598</v>
+        <v>0.9054</v>
       </c>
       <c r="B4" s="0">
-        <v>342.3179</v>
+        <v>371.0778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.182</v>
+        <v>0.805</v>
       </c>
       <c r="B5" s="0">
-        <v>345.0852</v>
+        <v>369.7135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2033</v>
+        <v>0.805</v>
       </c>
       <c r="B6" s="0">
-        <v>346.6474</v>
+        <v>369.7135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2246</v>
+        <v>0.7036</v>
       </c>
       <c r="B7" s="0">
-        <v>349.6449</v>
+        <v>367.6671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2459</v>
+        <v>0.6033</v>
       </c>
       <c r="B8" s="0">
-        <v>350.7107</v>
+        <v>364.9386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2672</v>
+        <v>0.5008</v>
       </c>
       <c r="B9" s="0">
-        <v>352.6057</v>
+        <v>362.2101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2885</v>
+        <v>0.5008</v>
       </c>
       <c r="B10" s="0">
-        <v>353.0794</v>
+        <v>362.2101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3098</v>
+        <v>0.3994</v>
       </c>
       <c r="B11" s="0">
-        <v>354.5282</v>
+        <v>358.7995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3311</v>
+        <v>0.3041</v>
       </c>
       <c r="B12" s="0">
-        <v>356.6324</v>
+        <v>354.0246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3524</v>
+        <v>0.2048</v>
       </c>
       <c r="B13" s="0">
-        <v>357.4022</v>
+        <v>345.839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3737</v>
+        <v>0.1501</v>
       </c>
       <c r="B14" s="0">
-        <v>358.093</v>
+        <v>341.0641</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.395</v>
+        <v>0.0206</v>
       </c>
       <c r="B15" s="0">
-        <v>358.6161</v>
+        <v>284.4475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4163</v>
+        <v>0.0055</v>
       </c>
       <c r="B16" s="0">
-        <v>360.5998</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4376</v>
-      </c>
-      <c r="B17" s="0">
-        <v>361.2512</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4589</v>
-      </c>
-      <c r="B18" s="0">
-        <v>361.4881</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4802</v>
-      </c>
-      <c r="B19" s="0">
-        <v>361.9026</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5015</v>
-      </c>
-      <c r="B20" s="0">
-        <v>362.0506</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.5228</v>
-      </c>
-      <c r="B21" s="0">
-        <v>364.212</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5441</v>
-      </c>
-      <c r="B22" s="0">
-        <v>364.8634</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5654</v>
-      </c>
-      <c r="B23" s="0">
-        <v>365.1595</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5867</v>
-      </c>
-      <c r="B24" s="0">
-        <v>364.8634</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.608</v>
-      </c>
-      <c r="B25" s="0">
-        <v>366.5806</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6293</v>
-      </c>
-      <c r="B26" s="0">
-        <v>366.9952</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6506</v>
-      </c>
-      <c r="B27" s="0">
-        <v>367.5873</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.672</v>
-      </c>
-      <c r="B28" s="0">
-        <v>367.765</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6933</v>
-      </c>
-      <c r="B29" s="0">
-        <v>367.913</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.7146</v>
-      </c>
-      <c r="B30" s="0">
-        <v>368.2979</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7359</v>
-      </c>
-      <c r="B31" s="0">
-        <v>368.5348</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7572</v>
-      </c>
-      <c r="B32" s="0">
-        <v>369.0677</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7785</v>
-      </c>
-      <c r="B33" s="0">
-        <v>369.2256</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7998</v>
-      </c>
-      <c r="B34" s="0">
-        <v>368.6335</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.8211</v>
-      </c>
-      <c r="B35" s="0">
-        <v>370.2126</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8424</v>
-      </c>
-      <c r="B36" s="0">
-        <v>371.4956</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8637</v>
-      </c>
-      <c r="B37" s="0">
-        <v>371.6732</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.885</v>
-      </c>
-      <c r="B38" s="0">
-        <v>371.1403</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9063</v>
-      </c>
-      <c r="B39" s="0">
-        <v>372.1864</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9276</v>
-      </c>
-      <c r="B40" s="0">
-        <v>371.9693</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9489</v>
-      </c>
-      <c r="B41" s="0">
-        <v>372.1075</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9702</v>
-      </c>
-      <c r="B42" s="0">
-        <v>373.9629</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9867</v>
-      </c>
-      <c r="B43" s="0">
-        <v>374.9301</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1085</v>
-      </c>
-      <c r="B44" s="0">
-        <v>334.925</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0994</v>
-      </c>
-      <c r="B45" s="0">
-        <v>332.8786</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0741</v>
-      </c>
-      <c r="B46" s="0">
-        <v>324.0109</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0206</v>
-      </c>
-      <c r="B47" s="0">
-        <v>283.0832</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0076</v>
-      </c>
-      <c r="B48" s="0">
-        <v>255.116</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0418</v>
-      </c>
-      <c r="B49" s="0">
-        <v>304.9113</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>255.7981</v>
+      </c>
+    </row>
+    <row r="17"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4825,7 +4305,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4846,373 +4326,109 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1046</v>
+        <v>0.9537</v>
       </c>
       <c r="B3" s="0">
-        <v>339.3413</v>
+        <v>442.7012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1259</v>
+        <v>0.8989</v>
       </c>
       <c r="B4" s="0">
-        <v>345.2037</v>
+        <v>439.9727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1471</v>
+        <v>0.7975</v>
       </c>
       <c r="B5" s="0">
-        <v>352.6846</v>
+        <v>437.9263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1684</v>
+        <v>0.7022</v>
       </c>
       <c r="B6" s="0">
-        <v>358.9418</v>
+        <v>433.8336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1904</v>
+        <v>0.5947</v>
       </c>
       <c r="B7" s="0">
-        <v>366.4839</v>
+        <v>429.7408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2109</v>
+        <v>0.5947</v>
       </c>
       <c r="B8" s="0">
-        <v>370.3113</v>
+        <v>429.7408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2322</v>
+        <v>0.4934</v>
       </c>
       <c r="B9" s="0">
-        <v>375.3372</v>
+        <v>419.5089</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2541</v>
+        <v>0.3981</v>
       </c>
       <c r="B10" s="0">
-        <v>380.076</v>
+        <v>405.8663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2748</v>
+        <v>0.3981</v>
       </c>
       <c r="B11" s="0">
-        <v>384.7402</v>
+        <v>405.8663</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2961</v>
+        <v>0.2887</v>
       </c>
       <c r="B12" s="0">
-        <v>388.609</v>
+        <v>388.8131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3149</v>
+        <v>0.1459</v>
       </c>
       <c r="B13" s="0">
-        <v>391.959</v>
+        <v>353.3424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3388</v>
+        <v>0.0398</v>
       </c>
       <c r="B14" s="0">
-        <v>396.4255</v>
+        <v>296.7258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3599</v>
+        <v>0.0176</v>
       </c>
       <c r="B15" s="0">
-        <v>400.2154</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3812</v>
-      </c>
-      <c r="B16" s="0">
-        <v>404.1828</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4025</v>
-      </c>
-      <c r="B17" s="0">
-        <v>407.248</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4238</v>
-      </c>
-      <c r="B18" s="0">
-        <v>411.5848</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4435</v>
-      </c>
-      <c r="B19" s="0">
-        <v>415.0983</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4661</v>
-      </c>
-      <c r="B20" s="0">
-        <v>416.4554</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4906</v>
-      </c>
-      <c r="B21" s="0">
-        <v>420.5795</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5099</v>
-      </c>
-      <c r="B22" s="0">
-        <v>422.3992</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.5341</v>
-      </c>
-      <c r="B23" s="0">
-        <v>425.5598</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5612</v>
-      </c>
-      <c r="B24" s="0">
-        <v>430.1984</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5825</v>
-      </c>
-      <c r="B25" s="0">
-        <v>431.0669</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.6021</v>
-      </c>
-      <c r="B26" s="0">
-        <v>432.0902</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.6251</v>
-      </c>
-      <c r="B27" s="0">
-        <v>432.5473</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6464</v>
-      </c>
-      <c r="B28" s="0">
-        <v>433.0803</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6677</v>
-      </c>
-      <c r="B29" s="0">
-        <v>434.6791</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.689</v>
-      </c>
-      <c r="B30" s="0">
-        <v>435.7154</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7103</v>
-      </c>
-      <c r="B31" s="0">
-        <v>435.7489</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7316</v>
-      </c>
-      <c r="B32" s="0">
-        <v>436.1595</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7529</v>
-      </c>
-      <c r="B33" s="0">
-        <v>437.2254</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7742</v>
-      </c>
-      <c r="B34" s="0">
-        <v>438.1729</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7955</v>
-      </c>
-      <c r="B35" s="0">
-        <v>438.8834</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8168</v>
-      </c>
-      <c r="B36" s="0">
-        <v>439.4164</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8381</v>
-      </c>
-      <c r="B37" s="0">
-        <v>439.4164</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8594</v>
-      </c>
-      <c r="B38" s="0">
-        <v>439.6533</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8807</v>
-      </c>
-      <c r="B39" s="0">
-        <v>440.6599</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.902</v>
-      </c>
-      <c r="B40" s="0">
-        <v>441.2656</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9233</v>
-      </c>
-      <c r="B41" s="0">
-        <v>441.9035</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9446</v>
-      </c>
-      <c r="B42" s="0">
-        <v>442.8932</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9659</v>
-      </c>
-      <c r="B43" s="0">
-        <v>443.522</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9842</v>
-      </c>
-      <c r="B44" s="0">
-        <v>445.0927</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0761</v>
-      </c>
-      <c r="B45" s="0">
-        <v>326.0573</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0599</v>
-      </c>
-      <c r="B46" s="0">
-        <v>315.8254</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0418</v>
-      </c>
-      <c r="B47" s="0">
-        <v>298.7722</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0207</v>
-      </c>
-      <c r="B48" s="0">
-        <v>270.8049</v>
-      </c>
-    </row>
-    <row r="49"/>
+        <v>271.487</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5221,7 +4437,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5242,389 +4458,141 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0107</v>
+        <v>0.9574</v>
       </c>
       <c r="B3" s="0">
-        <v>215.4359</v>
+        <v>333.5607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0171</v>
+        <v>0.9047</v>
       </c>
       <c r="B4" s="0">
-        <v>235.5355</v>
+        <v>332.8786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.031</v>
+        <v>0.8012</v>
       </c>
       <c r="B5" s="0">
-        <v>250.0902</v>
+        <v>331.5143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.047</v>
+        <v>0.7018</v>
       </c>
       <c r="B6" s="0">
-        <v>263.903</v>
+        <v>330.1501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0626</v>
+        <v>0.6025</v>
       </c>
       <c r="B7" s="0">
-        <v>272.664</v>
+        <v>328.1037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0817</v>
+        <v>0.4027</v>
       </c>
       <c r="B8" s="0">
-        <v>283.9348</v>
+        <v>322.6467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1022</v>
+        <v>0.3054</v>
       </c>
       <c r="B9" s="0">
-        <v>288.9484</v>
+        <v>318.5539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1239</v>
+        <v>0.3054</v>
       </c>
       <c r="B10" s="0">
-        <v>294.5502</v>
+        <v>318.5539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1455</v>
+        <v>0.201</v>
       </c>
       <c r="B11" s="0">
-        <v>300.8903</v>
+        <v>309.6862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1678</v>
+        <v>0.1452</v>
       </c>
       <c r="B12" s="0">
-        <v>303.6044</v>
+        <v>300.8186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1881</v>
+        <v>0.0784</v>
       </c>
       <c r="B13" s="0">
-        <v>307.2462</v>
+        <v>281.719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2094</v>
+        <v>0.0582</v>
       </c>
       <c r="B14" s="0">
-        <v>309.7332</v>
+        <v>273.5334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2307</v>
+        <v>0.04</v>
       </c>
       <c r="B15" s="0">
-        <v>312.1019</v>
+        <v>261.9372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.252</v>
+        <v>0.0188</v>
       </c>
       <c r="B16" s="0">
-        <v>313.8784</v>
+        <v>242.1555</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2733</v>
+        <v>0.0068</v>
       </c>
       <c r="B17" s="0">
-        <v>315.9509</v>
+        <v>218.281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2946</v>
+        <v>0.0068</v>
       </c>
       <c r="B18" s="0">
-        <v>318.2603</v>
+        <v>210.0955</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3159</v>
+        <v>0.0039</v>
       </c>
       <c r="B19" s="0">
-        <v>319.0598</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3372</v>
-      </c>
-      <c r="B20" s="0">
-        <v>320.2145</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.3585</v>
-      </c>
-      <c r="B21" s="0">
-        <v>320.9843</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.3798</v>
-      </c>
-      <c r="B22" s="0">
-        <v>322.2278</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4011</v>
-      </c>
-      <c r="B23" s="0">
-        <v>322.9976</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4224</v>
-      </c>
-      <c r="B24" s="0">
-        <v>323.4714</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.4408</v>
-      </c>
-      <c r="B25" s="0">
-        <v>323.4714</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.4669</v>
-      </c>
-      <c r="B26" s="0">
-        <v>324.7741</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.4886</v>
-      </c>
-      <c r="B27" s="0">
-        <v>325.686</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5095</v>
-      </c>
-      <c r="B28" s="0">
-        <v>326.0769</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.525</v>
-      </c>
-      <c r="B29" s="0">
-        <v>326.0769</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.554</v>
-      </c>
-      <c r="B30" s="0">
-        <v>327.3796</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5754</v>
-      </c>
-      <c r="B31" s="0">
-        <v>327.4388</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5967</v>
-      </c>
-      <c r="B32" s="0">
-        <v>327.9126</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6122</v>
-      </c>
-      <c r="B33" s="0">
-        <v>327.7704</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6431</v>
-      </c>
-      <c r="B34" s="0">
-        <v>328.6824</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6615</v>
-      </c>
-      <c r="B35" s="0">
-        <v>328.6824</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6935</v>
-      </c>
-      <c r="B36" s="0">
-        <v>330.4589</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7148</v>
-      </c>
-      <c r="B37" s="0">
-        <v>330.1529</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7264</v>
-      </c>
-      <c r="B38" s="0">
-        <v>329.9851</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7652</v>
-      </c>
-      <c r="B39" s="0">
-        <v>331.2879</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7865</v>
-      </c>
-      <c r="B40" s="0">
-        <v>331.1694</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8078</v>
-      </c>
-      <c r="B41" s="0">
-        <v>331.1991</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8291</v>
-      </c>
-      <c r="B42" s="0">
-        <v>331.2879</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8504</v>
-      </c>
-      <c r="B43" s="0">
-        <v>331.2879</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8702</v>
-      </c>
-      <c r="B44" s="0">
-        <v>331.2879</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.894</v>
-      </c>
-      <c r="B45" s="0">
-        <v>332.1347</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9162</v>
-      </c>
-      <c r="B46" s="0">
-        <v>332.8867</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9386</v>
-      </c>
-      <c r="B47" s="0">
-        <v>332.663</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9588</v>
-      </c>
-      <c r="B48" s="0">
-        <v>332.9459</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9769</v>
-      </c>
-      <c r="B49" s="0">
-        <v>334.0019</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9927</v>
-      </c>
-      <c r="B50" s="0">
-        <v>334.5448</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>186.221</v>
+      </c>
+    </row>
+    <row r="20"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 87 Development of Porosity upon/Data87_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 87 Development of Porosity upon/Data87_all_graphs_excel.xlsx
@@ -5,10 +5,19 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 350  0-1-0-500 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 450  0-1-0-500 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 500  0-1-0-500 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 3 600  0-1-0-500 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 350  0&amp;1&amp;0&amp;500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 450  0&amp;1&amp;0&amp;500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 500  0&amp;1&amp;0&amp;500 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 600  0&amp;1&amp;0&amp;500 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 6 0.4  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 6 0.7  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 6 0.7  0&amp;1&amp;100&amp;700 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 6 1  0&amp;1&amp;0&amp;800 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 6 1  0&amp;1&amp;100&amp;700 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 6 1.5  0&amp;1&amp;0&amp;800 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 6 1.5  0&amp;1&amp;100&amp;700 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 6 2.3  0&amp;1&amp;0&amp;800 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 6 2.3  0&amp;1&amp;100&amp;700 " sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -156,12 +165,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 350  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 350  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 350  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 350  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -247,6 +256,1262 @@
           <c:orientation val="minMax"/>
           <c:max val="500"/>
           <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1.5 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 1.5  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 1.5  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1.5 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 1.5  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 1.5  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 2.3 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 2.3  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 2.3  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 2.3 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 2.3  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 2.3  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -470,12 +1735,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 450  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 450  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 450  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 450  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -784,12 +2049,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 500  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 500  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 500  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 500  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1098,12 +2363,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 600  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 600  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 600  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 600  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1320,7 +2585,1737 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 0.4 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 0.4  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 0.4  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 0.7 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 0.7  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 0.7  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 0.7 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 0.7  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 0.7  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 1  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 1  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki 1 z wykresu 'Figure 6' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 6 1  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 6 1  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1480,6 +4475,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2001,7 +5196,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2522,7 +5717,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3043,7 +6238,4696 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3582,6 +11466,146 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3687,6 +11711,181 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4163,6 +12362,646 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9962</v>
+      </c>
+      <c r="B3" s="0">
+        <v>497.1942</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9545</v>
+      </c>
+      <c r="B4" s="0">
+        <v>493.9677</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9462</v>
+      </c>
+      <c r="B5" s="0">
+        <v>495.0313</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9029</v>
+      </c>
+      <c r="B6" s="0">
+        <v>491.2699</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8945</v>
+      </c>
+      <c r="B7" s="0">
+        <v>493.4016</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.8012</v>
+      </c>
+      <c r="B8" s="0">
+        <v>490.1475</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.794</v>
+      </c>
+      <c r="B9" s="0">
+        <v>490.1436</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6957</v>
+      </c>
+      <c r="B10" s="0">
+        <v>487.4209</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5957</v>
+      </c>
+      <c r="B11" s="0">
+        <v>485.7654</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5034</v>
+      </c>
+      <c r="B12" s="0">
+        <v>480.9097</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.4012</v>
+      </c>
+      <c r="B13" s="0">
+        <v>477.1168</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.304</v>
+      </c>
+      <c r="B14" s="0">
+        <v>470.1223</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2957</v>
+      </c>
+      <c r="B15" s="0">
+        <v>470.1179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2513</v>
+      </c>
+      <c r="B16" s="0">
+        <v>465.8218</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.204</v>
+      </c>
+      <c r="B17" s="0">
+        <v>460.9901</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.1541</v>
+      </c>
+      <c r="B18" s="0">
+        <v>449.7485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1008</v>
+      </c>
+      <c r="B19" s="0">
+        <v>428.3582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0808</v>
+      </c>
+      <c r="B20" s="0">
+        <v>415.5305</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0525</v>
+      </c>
+      <c r="B21" s="0">
+        <v>389.8812</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0215</v>
+      </c>
+      <c r="B22" s="0">
+        <v>343.9367</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0094</v>
+      </c>
+      <c r="B23" s="0">
+        <v>307.6151</v>
+      </c>
+    </row>
+    <row r="24"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9908</v>
+      </c>
+      <c r="B3" s="0">
+        <v>524.102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9484</v>
+      </c>
+      <c r="B4" s="0">
+        <v>520.377</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8941</v>
+      </c>
+      <c r="B5" s="0">
+        <v>519.5867</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8052</v>
+      </c>
+      <c r="B6" s="0">
+        <v>515.9005</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6992</v>
+      </c>
+      <c r="B7" s="0">
+        <v>511.393</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.601</v>
+      </c>
+      <c r="B8" s="0">
+        <v>506.4611</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4996</v>
+      </c>
+      <c r="B9" s="0">
+        <v>502.7854</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.4066</v>
+      </c>
+      <c r="B10" s="0">
+        <v>497.0136</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2009</v>
+      </c>
+      <c r="B11" s="0">
+        <v>469.191</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1508</v>
+      </c>
+      <c r="B12" s="0">
+        <v>450.4306</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0755</v>
+      </c>
+      <c r="B13" s="0">
+        <v>404.1148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0183</v>
+      </c>
+      <c r="B14" s="0">
+        <v>328.1179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0102</v>
+      </c>
+      <c r="B15" s="0">
+        <v>300.5482</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0076</v>
+      </c>
+      <c r="B16" s="0">
+        <v>283.0015</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0072</v>
+      </c>
+      <c r="B17" s="0">
+        <v>267.9601</v>
+      </c>
+    </row>
+    <row r="18"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9968</v>
+      </c>
+      <c r="B3" s="0">
+        <v>757.2746</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9051</v>
+      </c>
+      <c r="B4" s="0">
+        <v>750.8171</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8023</v>
+      </c>
+      <c r="B5" s="0">
+        <v>743.2856</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7001</v>
+      </c>
+      <c r="B6" s="0">
+        <v>736.2885</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6007</v>
+      </c>
+      <c r="B7" s="0">
+        <v>721.8161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.4975</v>
+      </c>
+      <c r="B8" s="0">
+        <v>684.9119</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3965</v>
+      </c>
+      <c r="B9" s="0">
+        <v>625.5789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2006</v>
+      </c>
+      <c r="B10" s="0">
+        <v>491.963</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1563</v>
+      </c>
+      <c r="B11" s="0">
+        <v>456.1582</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0986</v>
+      </c>
+      <c r="B12" s="0">
+        <v>411.2676</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0731</v>
+      </c>
+      <c r="B13" s="0">
+        <v>385.6198</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0498</v>
+      </c>
+      <c r="B14" s="0">
+        <v>356.7689</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0398</v>
+      </c>
+      <c r="B15" s="0">
+        <v>341.8103</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0199</v>
+      </c>
+      <c r="B16" s="0">
+        <v>298.008</v>
+      </c>
+    </row>
+    <row r="17"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.996</v>
+      </c>
+      <c r="B3" s="0">
+        <v>669.5015</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.8936</v>
+      </c>
+      <c r="B4" s="0">
+        <v>662.484</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.798</v>
+      </c>
+      <c r="B5" s="0">
+        <v>655.4609</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.707</v>
+      </c>
+      <c r="B6" s="0">
+        <v>647.5982</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.5969</v>
+      </c>
+      <c r="B7" s="0">
+        <v>637.6623</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5044</v>
+      </c>
+      <c r="B8" s="0">
+        <v>623.1157</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4006</v>
+      </c>
+      <c r="B9" s="0">
+        <v>589.7762</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2994</v>
+      </c>
+      <c r="B10" s="0">
+        <v>539.3037</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1947</v>
+      </c>
+      <c r="B11" s="0">
+        <v>474.628</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1519</v>
+      </c>
+      <c r="B12" s="0">
+        <v>442.0732</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0982</v>
+      </c>
+      <c r="B13" s="0">
+        <v>399.4996</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0714</v>
+      </c>
+      <c r="B14" s="0">
+        <v>373.1989</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0488</v>
+      </c>
+      <c r="B15" s="0">
+        <v>346.8947</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0395</v>
+      </c>
+      <c r="B16" s="0">
+        <v>331.4429</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0195</v>
+      </c>
+      <c r="B17" s="0">
+        <v>285.9164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0088</v>
+      </c>
+      <c r="B18" s="0">
+        <v>237.4574</v>
+      </c>
+    </row>
+    <row r="19"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B17"/>
@@ -4597,4 +13436,760 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9946</v>
+      </c>
+      <c r="B3" s="0">
+        <v>200.2641</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.8913</v>
+      </c>
+      <c r="B4" s="0">
+        <v>198.6068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.789</v>
+      </c>
+      <c r="B5" s="0">
+        <v>198.0182</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.689</v>
+      </c>
+      <c r="B6" s="0">
+        <v>196.8967</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.5901</v>
+      </c>
+      <c r="B7" s="0">
+        <v>196.8439</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.4985</v>
+      </c>
+      <c r="B8" s="0">
+        <v>195.7268</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.389</v>
+      </c>
+      <c r="B9" s="0">
+        <v>191.396</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2935</v>
+      </c>
+      <c r="B10" s="0">
+        <v>189.2088</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1518</v>
+      </c>
+      <c r="B11" s="0">
+        <v>181.6565</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1002</v>
+      </c>
+      <c r="B12" s="0">
+        <v>180.0268</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0757</v>
+      </c>
+      <c r="B13" s="0">
+        <v>176.8095</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0524</v>
+      </c>
+      <c r="B14" s="0">
+        <v>173.5927</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0396</v>
+      </c>
+      <c r="B15" s="0">
+        <v>171.9838</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0202</v>
+      </c>
+      <c r="B16" s="0">
+        <v>166.0989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0052</v>
+      </c>
+      <c r="B17" s="0">
+        <v>158.0802</v>
+      </c>
+    </row>
+    <row r="18"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.8927</v>
+      </c>
+      <c r="B3" s="0">
+        <v>298.4741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.7905</v>
+      </c>
+      <c r="B4" s="0">
+        <v>297.3514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.6905</v>
+      </c>
+      <c r="B5" s="0">
+        <v>297.832</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.5899</v>
+      </c>
+      <c r="B6" s="0">
+        <v>295.1081</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.4938</v>
+      </c>
+      <c r="B7" s="0">
+        <v>292.9206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.395</v>
+      </c>
+      <c r="B8" s="0">
+        <v>288.0614</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.2922</v>
+      </c>
+      <c r="B9" s="0">
+        <v>285.3363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.195</v>
+      </c>
+      <c r="B10" s="0">
+        <v>279.4099</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1578</v>
+      </c>
+      <c r="B11" s="0">
+        <v>276.1857</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1039</v>
+      </c>
+      <c r="B12" s="0">
+        <v>271.3505</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0917</v>
+      </c>
+      <c r="B13" s="0">
+        <v>270.81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B14" s="0">
+        <v>268.1335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="B15" s="0">
+        <v>260.6409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0378</v>
+      </c>
+      <c r="B16" s="0">
+        <v>258.4982</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B17" s="0">
+        <v>251.5461</v>
+      </c>
+    </row>
+    <row r="18"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9591</v>
+      </c>
+      <c r="B3" s="0">
+        <v>259.2259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9074</v>
+      </c>
+      <c r="B4" s="0">
+        <v>257.5978</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8081</v>
+      </c>
+      <c r="B5" s="0">
+        <v>256.8451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7068</v>
+      </c>
+      <c r="B6" s="0">
+        <v>254.4228</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6065</v>
+      </c>
+      <c r="B7" s="0">
+        <v>253.2532</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5067</v>
+      </c>
+      <c r="B8" s="0">
+        <v>249.994</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4075</v>
+      </c>
+      <c r="B9" s="0">
+        <v>247.1521</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3087</v>
+      </c>
+      <c r="B10" s="0">
+        <v>244.7277</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2575</v>
+      </c>
+      <c r="B11" s="0">
+        <v>242.6813</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2074</v>
+      </c>
+      <c r="B12" s="0">
+        <v>240.6341</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1577</v>
+      </c>
+      <c r="B13" s="0">
+        <v>238.1686</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.1086</v>
+      </c>
+      <c r="B14" s="0">
+        <v>233.6135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0911</v>
+      </c>
+      <c r="B15" s="0">
+        <v>231.5391</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0797</v>
+      </c>
+      <c r="B16" s="0">
+        <v>231.1307</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0564</v>
+      </c>
+      <c r="B17" s="0">
+        <v>227.3897</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0254</v>
+      </c>
+      <c r="B18" s="0">
+        <v>219.0591</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0115</v>
+      </c>
+      <c r="B19" s="0">
+        <v>209.4607</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0023</v>
+      </c>
+      <c r="B20" s="0">
+        <v>190.6662</v>
+      </c>
+    </row>
+    <row r="21"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.953</v>
+      </c>
+      <c r="B3" s="0">
+        <v>439.4942</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9002</v>
+      </c>
+      <c r="B4" s="0">
+        <v>436.7958</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.798</v>
+      </c>
+      <c r="B5" s="0">
+        <v>434.6051</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7047</v>
+      </c>
+      <c r="B6" s="0">
+        <v>433.4871</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.5952</v>
+      </c>
+      <c r="B7" s="0">
+        <v>428.6223</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.498</v>
+      </c>
+      <c r="B8" s="0">
+        <v>418.9576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3969</v>
+      </c>
+      <c r="B9" s="0">
+        <v>405.5524</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2914</v>
+      </c>
+      <c r="B10" s="0">
+        <v>387.3385</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2031</v>
+      </c>
+      <c r="B11" s="0">
+        <v>367.5317</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1498</v>
+      </c>
+      <c r="B12" s="0">
+        <v>353.084</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1015</v>
+      </c>
+      <c r="B13" s="0">
+        <v>333.8326</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0804</v>
+      </c>
+      <c r="B14" s="0">
+        <v>324.2085</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0605</v>
+      </c>
+      <c r="B15" s="0">
+        <v>312.4488</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0505</v>
+      </c>
+      <c r="B16" s="0">
+        <v>304.4328</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0405</v>
+      </c>
+      <c r="B17" s="0">
+        <v>295.8828</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0189</v>
+      </c>
+      <c r="B18" s="0">
+        <v>268.6349</v>
+      </c>
+    </row>
+    <row r="19"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9572</v>
+      </c>
+      <c r="B3" s="0">
+        <v>370.3696</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9034</v>
+      </c>
+      <c r="B4" s="0">
+        <v>369.5789</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8047</v>
+      </c>
+      <c r="B5" s="0">
+        <v>367.9901</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7033</v>
+      </c>
+      <c r="B6" s="0">
+        <v>365.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6004</v>
+      </c>
+      <c r="B7" s="0">
+        <v>363.5647</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5017</v>
+      </c>
+      <c r="B8" s="0">
+        <v>360.3046</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3993</v>
+      </c>
+      <c r="B9" s="0">
+        <v>357.4653</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3042</v>
+      </c>
+      <c r="B10" s="0">
+        <v>353.7844</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2065</v>
+      </c>
+      <c r="B11" s="0">
+        <v>345.9273</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1527</v>
+      </c>
+      <c r="B12" s="0">
+        <v>339.287</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0814</v>
+      </c>
+      <c r="B13" s="0">
+        <v>325.5583</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0628</v>
+      </c>
+      <c r="B14" s="0">
+        <v>317.2172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0417</v>
+      </c>
+      <c r="B15" s="0">
+        <v>305.1179</v>
+      </c>
+    </row>
+    <row r="16"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 87 Development of Porosity upon/Data87_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 87 Development of Porosity upon/Data87_all_graphs_excel.xlsx
@@ -9,15 +9,15 @@
     <sheet name="Figure 3 450  0&amp;1&amp;0&amp;500 " sheetId="2" r:id="rId4"/>
     <sheet name="Figure 3 500  0&amp;1&amp;0&amp;500 " sheetId="3" r:id="rId5"/>
     <sheet name="Figure 3 600  0&amp;1&amp;0&amp;500 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 6 0.4  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 6 0.7  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 6 0.7  0&amp;1&amp;100&amp;700 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 6 1  0&amp;1&amp;0&amp;800 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 6 1  0&amp;1&amp;100&amp;700 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 6 1.5  0&amp;1&amp;0&amp;800 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 6 1.5  0&amp;1&amp;100&amp;700 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 6 2.3  0&amp;1&amp;0&amp;800 " sheetId="12" r:id="rId14"/>
-    <sheet name="Figure 6 2.3  0&amp;1&amp;100&amp;700 " sheetId="13" r:id="rId15"/>
+    <sheet name="Figure 6_1 0.7  0&amp;1&amp;100&amp;700 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 6_1 1  0&amp;1&amp;100&amp;700 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 6_1 1.5  0&amp;1&amp;100&amp;700 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 6_1 2.3  0&amp;1&amp;100&amp;700 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 6_2 0.4  0&amp;1&amp;0&amp;800 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 6_2 0.7  0&amp;1&amp;0&amp;800 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 6_2 1  0&amp;1&amp;0&amp;800 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 6_2 1.5  0&amp;1&amp;0&amp;800 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 6_2 2.3  0&amp;1&amp;0&amp;800 " sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -420,7 +420,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1.5 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 0.7 z wykresu 'Figure 6_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -479,12 +479,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 1.5  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_2 0.7  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 1.5  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_2 0.7  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -734,7 +734,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1.5 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 1 z wykresu 'Figure 6_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -793,12 +793,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 1.5  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_2 1  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 1.5  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_2 1  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -882,8 +882,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700"/>
-          <c:min val="100"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1048,7 +1048,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 2.3 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 1.5 z wykresu 'Figure 6_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1107,12 +1107,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 2.3  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_2 1.5  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 2.3  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_2 1.5  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1362,7 +1362,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 2.3 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 2.3 z wykresu 'Figure 6_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1421,12 +1421,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 2.3  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_2 2.3  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 2.3  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_2 2.3  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1510,8 +1510,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700"/>
-          <c:min val="100"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2618,7 +2618,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.4 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 0.7 z wykresu 'Figure 6_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2677,12 +2677,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 0.4  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_1 0.7  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 0.4  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_1 0.7  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2766,8 +2766,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
-          <c:min val="0"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2932,7 +2932,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.7 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 1 z wykresu 'Figure 6_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2991,12 +2991,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 0.7  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_1 1  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 0.7  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_1 1  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3080,8 +3080,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
-          <c:min val="0"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3246,7 +3246,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.7 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 1.5 z wykresu 'Figure 6_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3305,12 +3305,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 0.7  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_1 1.5  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 0.7  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_1 1.5  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3560,7 +3560,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 2.3 z wykresu 'Figure 6_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3619,12 +3619,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 1  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_1 2.3  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 1  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_1 2.3  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3708,8 +3708,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
-          <c:min val="0"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3874,7 +3874,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1 z wykresu 'Figure 6' </a:t>
+              <a:t>Izoterma adsorpcji probki 0.4 z wykresu 'Figure 6_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3933,12 +3933,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 1  0&amp;1&amp;100&amp;700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6_2 0.4  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 1  0&amp;1&amp;100&amp;700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6_2 0.4  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -4022,8 +4022,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700"/>
-          <c:min val="100"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12364,6 +12364,310 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.8927</v>
+      </c>
+      <c r="B3" s="0">
+        <v>298.4741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.7905</v>
+      </c>
+      <c r="B4" s="0">
+        <v>297.3514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.6905</v>
+      </c>
+      <c r="B5" s="0">
+        <v>297.832</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.5899</v>
+      </c>
+      <c r="B6" s="0">
+        <v>295.1081</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.4938</v>
+      </c>
+      <c r="B7" s="0">
+        <v>292.9206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.395</v>
+      </c>
+      <c r="B8" s="0">
+        <v>288.0614</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.2922</v>
+      </c>
+      <c r="B9" s="0">
+        <v>285.3363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.195</v>
+      </c>
+      <c r="B10" s="0">
+        <v>279.4099</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1578</v>
+      </c>
+      <c r="B11" s="0">
+        <v>276.1857</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1039</v>
+      </c>
+      <c r="B12" s="0">
+        <v>271.3505</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0917</v>
+      </c>
+      <c r="B13" s="0">
+        <v>270.81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B14" s="0">
+        <v>268.1335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="B15" s="0">
+        <v>260.6409</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0378</v>
+      </c>
+      <c r="B16" s="0">
+        <v>258.4982</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B17" s="0">
+        <v>251.5461</v>
+      </c>
+    </row>
+    <row r="18"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.953</v>
+      </c>
+      <c r="B3" s="0">
+        <v>439.4942</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9002</v>
+      </c>
+      <c r="B4" s="0">
+        <v>436.7958</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.798</v>
+      </c>
+      <c r="B5" s="0">
+        <v>434.6051</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7047</v>
+      </c>
+      <c r="B6" s="0">
+        <v>433.4871</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.5952</v>
+      </c>
+      <c r="B7" s="0">
+        <v>428.6223</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.498</v>
+      </c>
+      <c r="B8" s="0">
+        <v>418.9576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3969</v>
+      </c>
+      <c r="B9" s="0">
+        <v>405.5524</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2914</v>
+      </c>
+      <c r="B10" s="0">
+        <v>387.3385</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2031</v>
+      </c>
+      <c r="B11" s="0">
+        <v>367.5317</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1498</v>
+      </c>
+      <c r="B12" s="0">
+        <v>353.084</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1015</v>
+      </c>
+      <c r="B13" s="0">
+        <v>333.8326</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0804</v>
+      </c>
+      <c r="B14" s="0">
+        <v>324.2085</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0605</v>
+      </c>
+      <c r="B15" s="0">
+        <v>312.4488</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0505</v>
+      </c>
+      <c r="B16" s="0">
+        <v>304.4328</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0405</v>
+      </c>
+      <c r="B17" s="0">
+        <v>295.8828</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0189</v>
+      </c>
+      <c r="B18" s="0">
+        <v>268.6349</v>
+      </c>
+    </row>
+    <row r="19"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12558,155 +12862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9908</v>
-      </c>
-      <c r="B3" s="0">
-        <v>524.102</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9484</v>
-      </c>
-      <c r="B4" s="0">
-        <v>520.377</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8941</v>
-      </c>
-      <c r="B5" s="0">
-        <v>519.5867</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8052</v>
-      </c>
-      <c r="B6" s="0">
-        <v>515.9005</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.6992</v>
-      </c>
-      <c r="B7" s="0">
-        <v>511.393</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.601</v>
-      </c>
-      <c r="B8" s="0">
-        <v>506.4611</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.4996</v>
-      </c>
-      <c r="B9" s="0">
-        <v>502.7854</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.4066</v>
-      </c>
-      <c r="B10" s="0">
-        <v>497.0136</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2009</v>
-      </c>
-      <c r="B11" s="0">
-        <v>469.191</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1508</v>
-      </c>
-      <c r="B12" s="0">
-        <v>450.4306</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0755</v>
-      </c>
-      <c r="B13" s="0">
-        <v>404.1148</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0183</v>
-      </c>
-      <c r="B14" s="0">
-        <v>328.1179</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0102</v>
-      </c>
-      <c r="B15" s="0">
-        <v>300.5482</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0076</v>
-      </c>
-      <c r="B16" s="0">
-        <v>283.0015</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0072</v>
-      </c>
-      <c r="B17" s="0">
-        <v>267.9601</v>
-      </c>
-    </row>
-    <row r="18"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -12840,162 +12996,6 @@
       </c>
     </row>
     <row r="17"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.996</v>
-      </c>
-      <c r="B3" s="0">
-        <v>669.5015</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.8936</v>
-      </c>
-      <c r="B4" s="0">
-        <v>662.484</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.798</v>
-      </c>
-      <c r="B5" s="0">
-        <v>655.4609</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.707</v>
-      </c>
-      <c r="B6" s="0">
-        <v>647.5982</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.5969</v>
-      </c>
-      <c r="B7" s="0">
-        <v>637.6623</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.5044</v>
-      </c>
-      <c r="B8" s="0">
-        <v>623.1157</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.4006</v>
-      </c>
-      <c r="B9" s="0">
-        <v>589.7762</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.2994</v>
-      </c>
-      <c r="B10" s="0">
-        <v>539.3037</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1947</v>
-      </c>
-      <c r="B11" s="0">
-        <v>474.628</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1519</v>
-      </c>
-      <c r="B12" s="0">
-        <v>442.0732</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0982</v>
-      </c>
-      <c r="B13" s="0">
-        <v>399.4996</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.0714</v>
-      </c>
-      <c r="B14" s="0">
-        <v>373.1989</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0488</v>
-      </c>
-      <c r="B15" s="0">
-        <v>346.8947</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0395</v>
-      </c>
-      <c r="B16" s="0">
-        <v>331.4429</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0195</v>
-      </c>
-      <c r="B17" s="0">
-        <v>285.9164</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0088</v>
-      </c>
-      <c r="B18" s="0">
-        <v>237.4574</v>
-      </c>
-    </row>
-    <row r="19"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13440,7 +13440,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13448,7 +13448,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="2">
@@ -13461,125 +13461,149 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9946</v>
+        <v>0.9591</v>
       </c>
       <c r="B3" s="0">
-        <v>200.2641</v>
+        <v>259.2259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.8913</v>
+        <v>0.9074</v>
       </c>
       <c r="B4" s="0">
-        <v>198.6068</v>
+        <v>257.5978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.789</v>
+        <v>0.8081</v>
       </c>
       <c r="B5" s="0">
-        <v>198.0182</v>
+        <v>256.8451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.689</v>
+        <v>0.7068</v>
       </c>
       <c r="B6" s="0">
-        <v>196.8967</v>
+        <v>254.4228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.5901</v>
+        <v>0.6065</v>
       </c>
       <c r="B7" s="0">
-        <v>196.8439</v>
+        <v>253.2532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.4985</v>
+        <v>0.5067</v>
       </c>
       <c r="B8" s="0">
-        <v>195.7268</v>
+        <v>249.994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.389</v>
+        <v>0.4075</v>
       </c>
       <c r="B9" s="0">
-        <v>191.396</v>
+        <v>247.1521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2935</v>
+        <v>0.3087</v>
       </c>
       <c r="B10" s="0">
-        <v>189.2088</v>
+        <v>244.7277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1518</v>
+        <v>0.2575</v>
       </c>
       <c r="B11" s="0">
-        <v>181.6565</v>
+        <v>242.6813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1002</v>
+        <v>0.2074</v>
       </c>
       <c r="B12" s="0">
-        <v>180.0268</v>
+        <v>240.6341</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0757</v>
+        <v>0.1577</v>
       </c>
       <c r="B13" s="0">
-        <v>176.8095</v>
+        <v>238.1686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0524</v>
+        <v>0.1086</v>
       </c>
       <c r="B14" s="0">
-        <v>173.5927</v>
+        <v>233.6135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0396</v>
+        <v>0.0911</v>
       </c>
       <c r="B15" s="0">
-        <v>171.9838</v>
+        <v>231.5391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0202</v>
+        <v>0.0797</v>
       </c>
       <c r="B16" s="0">
-        <v>166.0989</v>
+        <v>231.1307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0052</v>
+        <v>0.0564</v>
       </c>
       <c r="B17" s="0">
-        <v>158.0802</v>
-      </c>
-    </row>
-    <row r="18"/>
+        <v>227.3897</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.0254</v>
+      </c>
+      <c r="B18" s="0">
+        <v>219.0591</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0115</v>
+      </c>
+      <c r="B19" s="0">
+        <v>209.4607</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0023</v>
+      </c>
+      <c r="B20" s="0">
+        <v>190.6662</v>
+      </c>
+    </row>
+    <row r="21"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13587,6 +13611,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9572</v>
+      </c>
+      <c r="B3" s="0">
+        <v>370.3696</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9034</v>
+      </c>
+      <c r="B4" s="0">
+        <v>369.5789</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.8047</v>
+      </c>
+      <c r="B5" s="0">
+        <v>367.9901</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.7033</v>
+      </c>
+      <c r="B6" s="0">
+        <v>365.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.6004</v>
+      </c>
+      <c r="B7" s="0">
+        <v>363.5647</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.5017</v>
+      </c>
+      <c r="B8" s="0">
+        <v>360.3046</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.3993</v>
+      </c>
+      <c r="B9" s="0">
+        <v>357.4653</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.3042</v>
+      </c>
+      <c r="B10" s="0">
+        <v>353.7844</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2065</v>
+      </c>
+      <c r="B11" s="0">
+        <v>345.9273</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1527</v>
+      </c>
+      <c r="B12" s="0">
+        <v>339.287</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0814</v>
+      </c>
+      <c r="B13" s="0">
+        <v>325.5583</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.0628</v>
+      </c>
+      <c r="B14" s="0">
+        <v>317.2172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0417</v>
+      </c>
+      <c r="B15" s="0">
+        <v>305.1179</v>
+      </c>
+    </row>
+    <row r="16"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -13596,7 +13752,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="2">
@@ -13609,297 +13765,125 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.8927</v>
+        <v>0.9908</v>
       </c>
       <c r="B3" s="0">
-        <v>298.4741</v>
+        <v>524.102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.7905</v>
+        <v>0.9484</v>
       </c>
       <c r="B4" s="0">
-        <v>297.3514</v>
+        <v>520.377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.6905</v>
+        <v>0.8941</v>
       </c>
       <c r="B5" s="0">
-        <v>297.832</v>
+        <v>519.5867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.5899</v>
+        <v>0.8052</v>
       </c>
       <c r="B6" s="0">
-        <v>295.1081</v>
+        <v>515.9005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.4938</v>
+        <v>0.6992</v>
       </c>
       <c r="B7" s="0">
-        <v>292.9206</v>
+        <v>511.393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.395</v>
+        <v>0.601</v>
       </c>
       <c r="B8" s="0">
-        <v>288.0614</v>
+        <v>506.4611</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2922</v>
+        <v>0.4996</v>
       </c>
       <c r="B9" s="0">
-        <v>285.3363</v>
+        <v>502.7854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.195</v>
+        <v>0.4066</v>
       </c>
       <c r="B10" s="0">
-        <v>279.4099</v>
+        <v>497.0136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1578</v>
+        <v>0.2009</v>
       </c>
       <c r="B11" s="0">
-        <v>276.1857</v>
+        <v>469.191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1039</v>
+        <v>0.1508</v>
       </c>
       <c r="B12" s="0">
-        <v>271.3505</v>
+        <v>450.4306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0917</v>
+        <v>0.0755</v>
       </c>
       <c r="B13" s="0">
-        <v>270.81</v>
+        <v>404.1148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.08</v>
+        <v>0.0183</v>
       </c>
       <c r="B14" s="0">
-        <v>268.1335</v>
+        <v>328.1179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.05</v>
+        <v>0.0102</v>
       </c>
       <c r="B15" s="0">
-        <v>260.6409</v>
+        <v>300.5482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0378</v>
+        <v>0.0076</v>
       </c>
       <c r="B16" s="0">
-        <v>258.4982</v>
+        <v>283.0015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.02</v>
+        <v>0.0072</v>
       </c>
       <c r="B17" s="0">
-        <v>251.5461</v>
+        <v>267.9601</v>
       </c>
     </row>
     <row r="18"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9591</v>
-      </c>
-      <c r="B3" s="0">
-        <v>259.2259</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9074</v>
-      </c>
-      <c r="B4" s="0">
-        <v>257.5978</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8081</v>
-      </c>
-      <c r="B5" s="0">
-        <v>256.8451</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.7068</v>
-      </c>
-      <c r="B6" s="0">
-        <v>254.4228</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.6065</v>
-      </c>
-      <c r="B7" s="0">
-        <v>253.2532</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.5067</v>
-      </c>
-      <c r="B8" s="0">
-        <v>249.994</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.4075</v>
-      </c>
-      <c r="B9" s="0">
-        <v>247.1521</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.3087</v>
-      </c>
-      <c r="B10" s="0">
-        <v>244.7277</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2575</v>
-      </c>
-      <c r="B11" s="0">
-        <v>242.6813</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2074</v>
-      </c>
-      <c r="B12" s="0">
-        <v>240.6341</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.1577</v>
-      </c>
-      <c r="B13" s="0">
-        <v>238.1686</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.1086</v>
-      </c>
-      <c r="B14" s="0">
-        <v>233.6135</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0911</v>
-      </c>
-      <c r="B15" s="0">
-        <v>231.5391</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.0797</v>
-      </c>
-      <c r="B16" s="0">
-        <v>231.1307</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.0564</v>
-      </c>
-      <c r="B17" s="0">
-        <v>227.3897</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.0254</v>
-      </c>
-      <c r="B18" s="0">
-        <v>219.0591</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.0115</v>
-      </c>
-      <c r="B19" s="0">
-        <v>209.4607</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0023</v>
-      </c>
-      <c r="B20" s="0">
-        <v>190.6662</v>
-      </c>
-    </row>
-    <row r="21"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13916,7 +13900,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="2">
@@ -13929,18 +13913,18 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.953</v>
+        <v>0.996</v>
       </c>
       <c r="B3" s="0">
-        <v>439.4942</v>
+        <v>669.5015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9002</v>
+        <v>0.8936</v>
       </c>
       <c r="B4" s="0">
-        <v>436.7958</v>
+        <v>662.484</v>
       </c>
     </row>
     <row r="5">
@@ -13948,111 +13932,111 @@
         <v>0.798</v>
       </c>
       <c r="B5" s="0">
-        <v>434.6051</v>
+        <v>655.4609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7047</v>
+        <v>0.707</v>
       </c>
       <c r="B6" s="0">
-        <v>433.4871</v>
+        <v>647.5982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.5952</v>
+        <v>0.5969</v>
       </c>
       <c r="B7" s="0">
-        <v>428.6223</v>
+        <v>637.6623</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.498</v>
+        <v>0.5044</v>
       </c>
       <c r="B8" s="0">
-        <v>418.9576</v>
+        <v>623.1157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3969</v>
+        <v>0.4006</v>
       </c>
       <c r="B9" s="0">
-        <v>405.5524</v>
+        <v>589.7762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2914</v>
+        <v>0.2994</v>
       </c>
       <c r="B10" s="0">
-        <v>387.3385</v>
+        <v>539.3037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2031</v>
+        <v>0.1947</v>
       </c>
       <c r="B11" s="0">
-        <v>367.5317</v>
+        <v>474.628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1498</v>
+        <v>0.1519</v>
       </c>
       <c r="B12" s="0">
-        <v>353.084</v>
+        <v>442.0732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1015</v>
+        <v>0.0982</v>
       </c>
       <c r="B13" s="0">
-        <v>333.8326</v>
+        <v>399.4996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0804</v>
+        <v>0.0714</v>
       </c>
       <c r="B14" s="0">
-        <v>324.2085</v>
+        <v>373.1989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0605</v>
+        <v>0.0488</v>
       </c>
       <c r="B15" s="0">
-        <v>312.4488</v>
+        <v>346.8947</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0505</v>
+        <v>0.0395</v>
       </c>
       <c r="B16" s="0">
-        <v>304.4328</v>
+        <v>331.4429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0405</v>
+        <v>0.0195</v>
       </c>
       <c r="B17" s="0">
-        <v>295.8828</v>
+        <v>285.9164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0189</v>
+        <v>0.0088</v>
       </c>
       <c r="B18" s="0">
-        <v>268.6349</v>
+        <v>237.4574</v>
       </c>
     </row>
     <row r="19"/>
@@ -14064,7 +14048,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14072,7 +14056,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2">
@@ -14085,109 +14069,125 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9572</v>
+        <v>0.9946</v>
       </c>
       <c r="B3" s="0">
-        <v>370.3696</v>
+        <v>200.2641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9034</v>
+        <v>0.8913</v>
       </c>
       <c r="B4" s="0">
-        <v>369.5789</v>
+        <v>198.6068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.8047</v>
+        <v>0.789</v>
       </c>
       <c r="B5" s="0">
-        <v>367.9901</v>
+        <v>198.0182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.7033</v>
+        <v>0.689</v>
       </c>
       <c r="B6" s="0">
-        <v>365.15</v>
+        <v>196.8967</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.6004</v>
+        <v>0.5901</v>
       </c>
       <c r="B7" s="0">
-        <v>363.5647</v>
+        <v>196.8439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.5017</v>
+        <v>0.4985</v>
       </c>
       <c r="B8" s="0">
-        <v>360.3046</v>
+        <v>195.7268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3993</v>
+        <v>0.389</v>
       </c>
       <c r="B9" s="0">
-        <v>357.4653</v>
+        <v>191.396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3042</v>
+        <v>0.2935</v>
       </c>
       <c r="B10" s="0">
-        <v>353.7844</v>
+        <v>189.2088</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2065</v>
+        <v>0.1518</v>
       </c>
       <c r="B11" s="0">
-        <v>345.9273</v>
+        <v>181.6565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1527</v>
+        <v>0.1002</v>
       </c>
       <c r="B12" s="0">
-        <v>339.287</v>
+        <v>180.0268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0814</v>
+        <v>0.0757</v>
       </c>
       <c r="B13" s="0">
-        <v>325.5583</v>
+        <v>176.8095</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0628</v>
+        <v>0.0524</v>
       </c>
       <c r="B14" s="0">
-        <v>317.2172</v>
+        <v>173.5927</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0417</v>
+        <v>0.0396</v>
       </c>
       <c r="B15" s="0">
-        <v>305.1179</v>
-      </c>
-    </row>
-    <row r="16"/>
+        <v>171.9838</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.0202</v>
+      </c>
+      <c r="B16" s="0">
+        <v>166.0989</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.0052</v>
+      </c>
+      <c r="B17" s="0">
+        <v>158.0802</v>
+      </c>
+    </row>
+    <row r="18"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
